--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/c_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/c_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,37 +545,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág. 121</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Relacione os itens estruturais do Anexo de Comunicação Social às suas descrições correspondentes.</t>
+          <t>Relacione os níveis de planejamento no âmbito do Ministério da Defesa (MD) aos seus respectivos processos ou características específicas.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>["Finalidade", "Condicionantes", "Públicos de Interesse"]</t>
+          <t>["Nível Estratégico", "Nível Operacional", "Nível Tático (Forças Singulares)"]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>["Fatores que influenciam o planejamento, como diretrizes da SECOM-PR", "Grupos-alvo como a população do país oponente e formadores de opinião", "Orientar as ações de Comunicação Social do Ministério da Defesa e das Forças Armadas"]</t>
+          <t>["Utilizam metodologias próprias de cada Força, complementares aos níveis elevados", "Processo de Planejamento Estratégico Conjunto (PPEC)", "Processo de Planejamento Conjunto (PPC) com produto final sendo o Plano Operacional"]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A Finalidade é orientar as ações (item 1); Condicionantes são fatores influenciadores como diretrizes externas (item 3); Públicos de interesse incluem populações e formadores de opinião (item 4).</t>
+          <t>No nível estratégico, aplica-se o PPEC. No nível operacional, utiliza-se o PPC, resultando no Plano Operacional. No nível tático, quando envolve forças singulares, utilizam-se metodologias próprias de cada Força.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -589,37 +589,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Associe os conceitos do planejamento estratégico de Comunicação Social aos seus exemplos práticos citados no texto.</t>
+          <t>Associe corretamente os responsáveis, produtos e metodologias aos seus contextos no planejamento conjunto.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>["Objetivos Estratégicos", "Ações Estratégicas", "Ideias-Força"]</t>
+          <t>["Chefe do Estado-Maior Conjunto das Forças Armadas", "PEECFA", "Forças Componentes Conjuntas (Nível Tático)"]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>["Divulgar a participação das Forças Armadas e atuar junto aos militares envolvidos", "A atuação das Forças Armadas ressalta a imprescindibilidade da Defesa Nacional", "Contribuir para potencializar a dissuasão e apoiar o processo decisório"]</t>
+          <t>["Utilizam a metodologia do Processo de Planejamento Conjunto (PPC)", "Responsável pela aplicação do PPEC no nível estratégico", "Produto final do Processo de Planejamento Estratégico Conjunto"]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Objetivos visam resultados como dissuasão (item 5); Ações são atividades como divulgar participação (item 6); Ideias-força são mensagens-chave sobre a importância da Defesa (item 7).</t>
+          <t>O Chefe do EMCFA é responsável pela aplicação do PPEC. O PEECFA é o produto final do PPEC. No nível tático, forças componentes conjuntas utilizam a metodologia do PPC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -633,37 +633,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Relacione as demandas de Comunicação Social às suas finalidades específicas descritas no anexo.</t>
+          <t>Correlacione os conceitos gerais de planejamento militar às suas definições ou atributos descritos no texto.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>["Media Training", "Rede de Relacionamento", "Criação de Site e Mídias Sociais"]</t>
+          <t>["Planejamento Militar (Sucesso)", "Metodologias de Forças Singulares", "Finalidade Real dos Processos"]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>["Concentrar todas as informações relevantes da participação das Forças Armadas", "Preparação de porta-vozes", "Integração aos Centros de Comunicação Social das Forças Singulares e do TO"]</t>
+          <t>["Devem ser complementares e jamais conflitantes com as utilizadas nos níveis mais elevados", "Cumprimento da missão da forma mais eficiente e obtenção do estado final desejado", "Baseado em dados confiáveis, atualizados, com flexibilidade e abrangência"]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{"0": "1", "1": "2", "2": "0"}</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Media training serve para preparar porta-vozes; a Rede integra os centros de comunicação; Sites e mídias visam concentrar as informações relevantes (item 8).</t>
+          <t>O sucesso do planejamento repousa em dados confiáveis e flexibilidade. As metodologias singulares devem ser complementares e não conflitantes. A finalidade real é o cumprimento da missão e o estado final desejado.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -672,46 +672,54 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>---</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Associe as prescrições diversas de Comunicação Social às suas regras de aplicação.</t>
+          <t>---</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>["Indicação do Porta-voz", "Prioridade de Comunicação", "Princípios de Utilização"]</t>
+          <t>---</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>["Notícias sobre crises, catástrofes ou riscos ao sucesso da operação", "Pró-atividade, unicidade de discurso, transparência e pronta resposta", "Prerrogativa do Comandante da Operação, considerando competência técnica"]</t>
+          <t>---</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>---</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A indicação do porta-voz cabe ao Comandante (item 9.a); A prioridade é dada a crises e riscos (item 9.c); Os princípios incluem unicidade e transparência (item 9.b).</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -721,37 +729,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Relacione as medidas que o Comandante Operacional deve considerar no planejamento de Comunicação Social às suas ações correspondentes.</t>
+          <t>Relacione as etapas do Processo de Planejamento Conjunto (PPC) às suas respectivas características e produtos principais.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>["Montagem da Estrutura", "Monitoramento de Temas", "Informação Imediata"]</t>
+          <t>["Etapa 1: Exame de Situação Operacional", "Etapa 2: Elaboração de Planos e Ordens", "Etapa 3: Controle da Operação Planejada"]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>["Acompanhar assuntos sensíveis com potencial risco à imagem", "Relatar fatos relevantes com risco à imagem pelo meio mais rápido", "Utilizar profissionais capacitados, preferencialmente da área de atuação"]</t>
+          <t>["O Comandante verifica se os Efeitos e Objetivos Operacionais estão sendo alcançados e introduz alterações se necessário.", "Desenvolve-se o Conceito da Operação e preparam-se os documentos para transmissão às ordens subordinadas.", "Realiza-se o estudo do problema que culmina na escolha de uma Linha de Ação (LA) e no Conceito Preliminar da Operação."]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>{"0": "2", "1": "1", "2": "0"}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>A estrutura deve usar profissionais capacitados (item 9.e.1); O monitoramento foca em temas sensíveis (item 9.e.2); A informação imediata refere-se a riscos de imagem (item 9.e.3).</t>
+          <t>A Etapa 1 foca no estudo e escolha da LA; a Etapa 2 foca no desenvolvimento dos planos e ordens; a Etapa 3 foca na verificação e controle da execução.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -760,54 +768,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Associe as características do Processo de Planejamento Conjunto (PPC) às suas definições corretas.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>["Flexível", "Natureza Cíclica", "Caráter Contínuo"]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>["Permite retornar às partes anteriores para rever aspectos e analisar novos dados.", "Nenhuma parte é considerada definitiva a não ser quando a missão esteja integralmente cumprida.", "Possibilita o emprego na resolução de qualquer tipo de problema militar em diversos graus de complexidade."]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>O PPC é flexível para lidar com complexidade, cíclico pois permite revisões anteriores, e contínuo pois as partes não são definitivas até o fim da missão.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -817,37 +817,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág. 21</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Relacione os níveis de planejamento no âmbito do Ministério da Defesa (MD) aos seus respectivos processos ou características específicas.</t>
+          <t>Relacione os níveis de planejamento e suas respectivas aplicações e produtos no contexto do PPC.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>["Nível Estratégico", "Nível Operacional", "Nível Tático (Forças Singulares)"]</t>
+          <t>["Nível Operacional", "Nível Tático", "Forças Conjuntas (Nível Componente)"]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>["Utilizam metodologias próprias de cada Força, complementares aos níveis elevados", "Processo de Planejamento Estratégico Conjunto (PPEC)", "Processo de Planejamento Conjunto (PPC) com produto final sendo o Plano Operacional"]</t>
+          <t>["Devem adotar a mesma metodologia aplicável ao nível operacional (PPC), seguindo modelos do Plano Operacional.", "Utilizam metodologias peculiares de cada Força, que devem ser complementares e nunca conflitantes.", "Estabelece prioridades e diretrizes em um Plano Operacional para alcançar o Estado Final Desejado."]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{"0": "1", "1": "2", "2": "0"}</t>
+          <t>{"0": "2", "1": "1", "2": "0"}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No nível estratégico, aplica-se o PPEC. No nível operacional, utiliza-se o PPC, resultando no Plano Operacional. No nível tático, quando envolve forças singulares, utilizam-se metodologias próprias de cada Força.</t>
+          <t>O nível operacional gera o Plano Operacional; o nível tático usa metodologias peculiares complementares; Forças Conjuntas no nível componente adotam o PPC similar ao nível operacional.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -861,27 +861,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág. 21</t>
+          <t>Pág. 35, 36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Associe corretamente os responsáveis, produtos e metodologias aos seus contextos no planejamento conjunto.</t>
+          <t>Correlacione os conceitos fundamentais do planejamento militar descritos no texto às suas definições.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>["Chefe do Estado-Maior Conjunto das Forças Armadas", "PEECFA", "Forças Componentes Conjuntas (Nível Tático)"]</t>
+          <t>["Estado Final Desejado (EFD) Operacional", "Gerenciamento do Risco Operacional (GRO)", "Matriz de Três Colunas"]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>["Utilizam a metodologia do Processo de Planejamento Conjunto (PPC)", "Responsável pela aplicação do PPEC no nível estratégico", "Produto final do Processo de Planejamento Estratégico Conjunto"]</t>
+          <t>["Ferramenta de auxílio ao planejamento composta por fato, dedução e conclusão.", "Responsabilidade do Comandante Operacional, obtido através de medidas de coordenação e emprego de recursos.", "Análise da combinação de probabilidade e gravidade de danos potenciais como apoio à decisão."]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>O Chefe do EMCFA é responsável pela aplicação do PPEC. O PEECFA é o produto final do PPEC. No nível tático, forças componentes conjuntas utilizam a metodologia do PPC.</t>
+          <t>O EFD é o objetivo final do Cmt Op; o GRO analisa riscos (probabilidade/gravidade); a Matriz é composta por fato, dedução e conclusão.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -900,98 +900,98 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>---</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág. 21</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Correlacione os conceitos gerais de planejamento militar às suas definições ou atributos descritos no texto.</t>
+          <t>---</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>["Planejamento Militar (Sucesso)", "Metodologias de Forças Singulares", "Finalidade Real dos Processos"]</t>
+          <t>---</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>["Devem ser complementares e jamais conflitantes com as utilizadas nos níveis mais elevados", "Cumprimento da missão da forma mais eficiente e obtenção do estado final desejado", "Baseado em dados confiáveis, atualizados, com flexibilidade e abrangência"]</t>
+          <t>---</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>---</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>O sucesso do planejamento repousa em dados confiáveis e flexibilidade. As metodologias singulares devem ser complementares e não conflitantes. A finalidade real é o cumprimento da missão e o estado final desejado.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Relacione as fases do Exame de Situação Operacional (Exm Sit Op) às suas respectivas descrições ou conteúdos principais.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>["Fase 1", "Fase 3", "Fase 5", "Fase 6"]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>["Decisão", "Avaliação do Ambiente Operacional e Análise da Missão", "Conceito Preliminar da Operação", "Possibilidades do Inimigo, Linhas de Ação e Confronto"]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>{"0": "1", "1": "3", "2": "0", "3": "2"}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>A Fase 1 trata da Avaliação do Ambiente e Análise da Missão; a Fase 3 abrange as Psb Ini, LA e o Confronto; a Fase 5 é a Decisão do Comandante; e a Fase 6 é o desenvolvimento do Conceito Preliminar da Operação.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1001,37 +1001,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág. 37</t>
+          <t>Pág. 43, 44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Relacione as etapas do Processo de Planejamento Conjunto (PPC) às suas respectivas características e produtos principais.</t>
+          <t>Associe os conceitos fundamentais da avaliação do ambiente operacional às suas definições corretas.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>["Etapa 1: Exame de Situação Operacional", "Etapa 2: Elaboração de Planos e Ordens", "Etapa 3: Controle da Operação Planejada"]</t>
+          <t>["Situação Desejada", "Estado Final Desejado Operacional (EFD Op)", "Problema Militar", "Objetivo Operacional"]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>["O Comandante verifica se os Efeitos e Objetivos Operacionais estão sendo alcançados e introduz alterações se necessário.", "Desenvolve-se o Conceito da Operação e preparam-se os documentos para transmissão às ordens subordinadas.", "Realiza-se o estudo do problema que culmina na escolha de uma Linha de Ação (LA) e no Conceito Preliminar da Operação."]</t>
+          <t>["Questão, obstáculo ou óbice que impede ou dificulta alcançar o EFD Op.", "Meta para a qual concorrerão as ações, que contribuem para alcançar o EFD Op.", "Estado futuro a ser buscado visando modificar atitudes e relações dos atores.", "Descrição sucinta das condições que, alcançadas, permitem assumir o cumprimento da missão."]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "1", "2": "0"}</t>
+          <t>{"0": "2", "1": "3", "2": "0", "3": "1"}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A Etapa 1 foca no estudo e escolha da LA; a Etapa 2 foca no desenvolvimento dos planos e ordens; a Etapa 3 foca na verificação e controle da execução.</t>
+          <t>A Situação Desejada é o estado futuro buscado; o EFD Op descreve as condições de cumprimento da missão; o Problema Militar é o obstáculo para atingir o EFD Op; e o Objetivo Operacional é a meta das ações.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1045,27 +1045,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág. 36</t>
+          <t>Pág. 41, 42</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Associe as características do Processo de Planejamento Conjunto (PPC) às suas definições corretas.</t>
+          <t>Relacione os Fatores Gerais de análise do ambiente operacional aos aspectos que eles englobam.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>["Flexível", "Natureza Cíclica", "Caráter Contínuo"]</t>
+          <t>["Fatores Políticos", "Fatores Econômicos", "Fatores Psicossociais"]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>["Permite retornar às partes anteriores para rever aspectos e analisar novos dados.", "Nenhuma parte é considerada definitiva a não ser quando a missão esteja integralmente cumprida.", "Possibilita o emprego na resolução de qualquer tipo de problema militar em diversos graus de complexidade."]</t>
+          <t>["Capacidade de mobilização industrial e disponibilidade de recursos na área.", "Postura da população civil, moral das forças e características culturais.", "Estabilidade interna, alianças, tratados e aspectos de assuntos civis."]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>O PPC é flexível para lidar com complexidade, cíclico pois permite revisões anteriores, e contínuo pois as partes não são definitivas até o fim da missão.</t>
+          <t>Fatores Políticos envolvem estabilidade e alianças; Econômicos focam na indústria e recursos; Psicossociais analisam a população e o moral.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1089,37 +1089,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág. 35</t>
+          <t>Pág. 61, 62</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Relacione os níveis de planejamento e suas respectivas aplicações e produtos no contexto do PPC.</t>
+          <t>No contexto da validação das Linhas de Ação (LA), associe os critérios da prova de APA (Adequabilidade, Praticabilidade, Aceitabilidade) às suas definições.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>["Nível Operacional", "Nível Tático", "Forças Conjuntas (Nível Componente)"]</t>
+          <t>["Adequabilidade", "Praticabilidade", "Aceitabilidade"]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>["Devem adotar a mesma metodologia aplicável ao nível operacional (PPC), seguindo modelos do Plano Operacional.", "Utilizam metodologias peculiares de cada Força, que devem ser complementares e nunca conflitantes.", "Estabelece prioridades e diretrizes em um Plano Operacional para alcançar o Estado Final Desejado."]</t>
+          <t>["A LA pode ser implementada com as forças, apoio e tecnologia disponíveis.", "Os prováveis resultados da LA compensam os riscos e custos estimados.", "A LA cumpre a Missão e atinge o EFD Operacional conforme a Abordagem Operacional."]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "1", "2": "0"}</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>O nível operacional gera o Plano Operacional; o nível tático usa metodologias peculiares complementares; Forças Conjuntas no nível componente adotam o PPC similar ao nível operacional.</t>
+          <t>Adequabilidade verifica se a LA cumpre a missão; Praticabilidade verifica se é executável com os meios disponíveis; Aceitabilidade verifica se os ganhos compensam os riscos.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1133,37 +1133,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág. 35, 36</t>
+          <t>Pág. 62, 63</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Correlacione os conceitos fundamentais do planejamento militar descritos no texto às suas definições.</t>
+          <t>Relacione os papéis desempenhados durante o Confronto das Linhas de Ação (Jogo da Guerra) às suas atribuições.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>["Estado Final Desejado (EFD) Operacional", "Gerenciamento do Risco Operacional (GRO)", "Matriz de Três Colunas"]</t>
+          <t>["Árbitro", "Coordenador", "Partido das Psb Ini"]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>["Ferramenta de auxílio ao planejamento composta por fato, dedução e conclusão.", "Responsabilidade do Comandante Operacional, obtido através de medidas de coordenação e emprego de recursos.", "Análise da combinação de probabilidade e gravidade de danos potenciais como apoio à decisão."]</t>
+          <t>["Define as regras e o método para a condução do Confronto e controla o tempo.", "Responsável pela exposição das ações do inimigo, a cargo da Seção de Inteligência.", "Decide sobre os aperfeiçoamentos na LA e elimina as impraticáveis."]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{"0": "1", "1": "2", "2": "0"}</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>O EFD é o objetivo final do Cmt Op; o GRO analisa riscos (probabilidade/gravidade); a Matriz é composta por fato, dedução e conclusão.</t>
+          <t>O Árbitro decide sobre a LA (validade/ajustes); o Coordenador define o método e ritmo; o Partido das Psb Ini (D-2) expõe as ações inimigas.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1172,54 +1172,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág. 47, 48, 56</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Associe os documentos ou ferramentas de planejamento às suas funções ou conteúdos específicos no Exame de Situação.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>["Diretriz de Planejamento (DIPLAN)", "Matriz de Três Colunas", "Desenho Operacional", "Intenção do Comandante"]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>["Ferramenta que inter-relaciona elementos para apresentar uma solução visual ao problema.", "Documento emitido pelo Cmt Op que desencadeia o trabalho do EM para solução do problema.", "Delineia a forma como as forças explorarão as vulnerabilidades do inimigo para atingir o CG.", "Utilizada na análise detalhada de fatos, deduções e conclusões para definir Fatores de Força e Fraqueza."]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>{"0": "1", "1": "3", "2": "0", "3": "2"}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>A DIPLAN inicia o trabalho do EM; a Matriz de Três Colunas auxilia na análise lógica; o Desenho Operacional é a ferramenta gráfica da solução; a Intenção do Comandante descreve o método de emprego das forças.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1229,7 +1221,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág. 39</t>
+          <t>Pág. 59, 60</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1239,27 +1231,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Relacione as fases do Exame de Situação Operacional (Exm Sit Op) às suas respectivas descrições ou conteúdos principais.</t>
+          <t>Relacione os elementos constitutivos das Linhas de Ação (LA) às suas descrições no processo de elaboração.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>["Fase 1", "Fase 3", "Fase 5", "Fase 6"]</t>
+          <t>["Ponto Decisivo (PD)", "Efeito", "Ação"]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>["Decisão", "Avaliação do Ambiente Operacional e Análise da Missão", "Conceito Preliminar da Operação", "Possibilidades do Inimigo, Linhas de Ação e Confronto"]</t>
+          <t>["Alteração no estado de um sistema resultante de ações que contribui para um PD.", "Ato de realizar uma tarefa ou conjunto de tarefas (escrita com verbo no infinitivo).", "Determina um conjunto de ações a serem executadas em cada fase da campanha."]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{"0": "1", "1": "3", "2": "0", "3": "2"}</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A Fase 1 trata da Avaliação do Ambiente e Análise da Missão; a Fase 3 abrange as Psb Ini, LA e o Confronto; a Fase 5 é a Decisão do Comandante; e a Fase 6 é o desenvolvimento do Conceito Preliminar da Operação.</t>
+          <t>Os Pontos Decisivos orientam o conjunto de ações; o Efeito é a alteração de estado desejada; a Ação é a tarefa prática executada.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1273,7 +1265,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág. 43, 44</t>
+          <t>Pág. 50, 51</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1283,27 +1275,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Associe os conceitos fundamentais da avaliação do ambiente operacional às suas definições corretas.</t>
+          <t>Associe as características da Área de Responsabilidade aos aspectos específicos analisados em cada uma.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>["Situação Desejada", "Estado Final Desejado Operacional (EFD Op)", "Problema Militar", "Objetivo Operacional"]</t>
+          <t>["Hidrografia", "Terreno e Topografia", "Pontos de Importância Operacional", "Linhas de Transporte e Suprimento"]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>["Questão, obstáculo ou óbice que impede ou dificulta alcançar o EFD Op.", "Meta para a qual concorrerão as ações, que contribuem para alcançar o EFD Op.", "Estado futuro a ser buscado visando modificar atitudes e relações dos atores.", "Descrição sucinta das condições que, alcançadas, permitem assumir o cumprimento da missão."]</t>
+          <t>["Localizações e distâncias de instalações estáticas, bases e centros de C2.", "Obstáculos à progressão, cobertura vegetal e acidentes notáveis.", "Rotas marítimas, terrestres e aéreas existentes, incluindo pontos focais e entroncamentos.", "Profundidades, correntes, marés e condições sonar."]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "3", "2": "0", "3": "1"}</t>
+          <t>{"0": "3", "1": "1", "2": "0", "3": "2"}</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>A Situação Desejada é o estado futuro buscado; o EFD Op descreve as condições de cumprimento da missão; o Problema Militar é o obstáculo para atingir o EFD Op; e o Objetivo Operacional é a meta das ações.</t>
+          <t>Hidrografia trata de águas e navegação; Terreno trata do relevo e obstáculos terrestres; Pontos de Importância foca em locais estratégicos/instalações; Linhas de Transporte foca em rotas e logística.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1312,46 +1304,54 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>---</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág. 41, 42</t>
+          <t>---</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>---</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Relacione os Fatores Gerais de análise do ambiente operacional aos aspectos que eles englobam.</t>
+          <t>---</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>["Fatores Políticos", "Fatores Econômicos", "Fatores Psicossociais"]</t>
+          <t>---</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>["Capacidade de mobilização industrial e disponibilidade de recursos na área.", "Postura da população civil, moral das forças e características culturais.", "Estabilidade interna, alianças, tratados e aspectos de assuntos civis."]</t>
+          <t>---</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>---</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Fatores Políticos envolvem estabilidade e alianças; Econômicos focam na indústria e recursos; Psicossociais analisam a população e o moral.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1361,27 +1361,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág. 61, 62</t>
+          <t>Pág. 75, 76</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>No contexto da validação das Linhas de Ação (LA), associe os critérios da prova de APA (Adequabilidade, Praticabilidade, Aceitabilidade) às suas definições.</t>
+          <t>Relacione os Passos do Desenvolvimento do Conceito da Operação às suas respectivas atividades ou definições.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>["Adequabilidade", "Praticabilidade", "Aceitabilidade"]</t>
+          <t>["Passo 1", "Passo 2", "Passo 4"]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>["A LA pode ser implementada com as forças, apoio e tecnologia disponíveis.", "Os prováveis resultados da LA compensam os riscos e custos estimados.", "A LA cumpre a Missão e atinge o EFD Operacional conforme a Abordagem Operacional."]</t>
+          <t>["Determinar as ações das Forças Componentes e Forças Amigas", "Organizar os meios adjudicados de acordo com as operações", "Confirmação das Premissas Básicas"]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Adequabilidade verifica se a LA cumpre a missão; Praticabilidade verifica se é executável com os meios disponíveis; Aceitabilidade verifica se os ganhos compensam os riscos.</t>
+          <t>O Passo 1 consiste na reavaliação das Premissas Básicas. O Passo 2 envolve determinar as ações das F Cte. O Passo 4 trata da organização das forças e meios adjudicados.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1405,37 +1405,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág. 62, 63</t>
+          <t>Pág. 78</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Relacione os papéis desempenhados durante o Confronto das Linhas de Ação (Jogo da Guerra) às suas atribuições.</t>
+          <t>Associe os itens do formato do Plano Operacional às suas descrições corretas.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>["Árbitro", "Coordenador", "Partido das Psb Ini"]</t>
+          <t>["Situação", "Missão", "Execução"]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>["Define as regras e o método para a condução do Confronto e controla o tempo.", "Responsável pela exposição das ações do inimigo, a cargo da Seção de Inteligência.", "Decide sobre os aperfeiçoamentos na LA e elimina as impraticáveis."]</t>
+          <t>["Exposição do plano contendo a Intenção do Comandante e o Conceito da Operação", "Informações sobre Forças Inimigas, Amigas e Centros de Gravidade", "Enunciado claro e conciso contendo a finalidade (propósito) e as ações (tarefas)"]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>O Árbitro decide sobre a LA (validade/ajustes); o Coordenador define o método e ritmo; o Partido das Psb Ini (D-2) expõe as ações inimigas.</t>
+          <t>A 'Situação' contém informações para entendimento do quadro (Inimigos, Amigos, CG). A 'Missão' é o enunciado com propósito e tarefas. A 'Execução' expõe o plano, incluindo a Intenção e o Conceito.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1449,37 +1449,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág. 47, 48, 56</t>
+          <t>Pág. 79</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Associe os documentos ou ferramentas de planejamento às suas funções ou conteúdos específicos no Exame de Situação.</t>
+          <t>Correlacione os Anexos do Plano Operacional aos Apêndices ou conteúdos que lhes pertencem.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>["Diretriz de Planejamento (DIPLAN)", "Matriz de Três Colunas", "Desenho Operacional", "Intenção do Comandante"]</t>
+          <t>["Anexo A (Inteligência)", "Anexo B (Comando e Controle)", "Anexo K (Interdição)"]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>["Ferramenta que inter-relaciona elementos para apresentar uma solução visual ao problema.", "Documento emitido pelo Cmt Op que desencadeia o trabalho do EM para solução do problema.", "Delineia a forma como as forças explorarão as vulnerabilidades do inimigo para atingir o CG.", "Utilizada na análise detalhada de fatos, deduções e conclusões para definir Fatores de Força e Fraqueza."]</t>
+          <t>["Diagrama de Enlaces e Controle do Espectro Eletromagnético", "Lista Priorizada Integrada de Alvos (LIPA) e Lista de Alvos Restritos", "Forças Oponentes (Ordem de Batalha) e Infraestruturas críticas"]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{"0": "1", "1": "3", "2": "0", "3": "2"}</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>A DIPLAN inicia o trabalho do EM; a Matriz de Três Colunas auxilia na análise lógica; o Desenho Operacional é a ferramenta gráfica da solução; a Intenção do Comandante descreve o método de emprego das forças.</t>
+          <t>O Anexo A (Inteligência) contém a Ordem de Batalha das Forças Oponentes. O Anexo B (C2) contém o Diagrama de Enlaces. O Anexo K (Interdição) contém a LIPA.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1493,37 +1493,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág. 59, 60</t>
+          <t>Pág. 77</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Relacione os elementos constitutivos das Linhas de Ação (LA) às suas descrições no processo de elaboração.</t>
+          <t>Relacione as responsabilidades e fases da elaboração de planos às suas características.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>["Ponto Decisivo (PD)", "Efeito", "Ação"]</t>
+          <t>["Seção de Operações (D3)", "Seção de Planejamento (D5)", "2ª Fase do Processo"]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>["Alteração no estado de um sistema resultante de ações que contribui para um PD.", "Ato de realizar uma tarefa ou conjunto de tarefas (escrita com verbo no infinitivo).", "Determina um conjunto de ações a serem executadas em cada fase da campanha."]</t>
+          <t>["Redação dos Planos e Ordens", "Atribuição principal da redação do Plano Operacional", "Apoio à redação do Plano Operacional"]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Os Pontos Decisivos orientam o conjunto de ações; o Efeito é a alteração de estado desejada; a Ação é a tarefa prática executada.</t>
+          <t>A redação do Plano Operacional é atribuição do D3, com apoio do D5. A 2ª fase do processo corresponde à 'Redação dos Planos e Ordens',.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1537,37 +1537,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág. 50, 51</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Associe as características da Área de Responsabilidade aos aspectos específicos analisados em cada uma.</t>
+          <t>Relacione os itens que compõem o Conceito da Operação com suas descrições.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>["Hidrografia", "Terreno e Topografia", "Pontos de Importância Operacional", "Linhas de Transporte e Suprimento"]</t>
+          <t>["Matriz de Sincronização", "Faseamento", "Intenção do Comandante"]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>["Localizações e distâncias de instalações estáticas, bases e centros de C2.", "Obstáculos à progressão, cobertura vegetal e acidentes notáveis.", "Rotas marítimas, terrestres e aéreas existentes, incluindo pontos focais e entroncamentos.", "Profundidades, correntes, marés e condições sonar."]</t>
+          <t>["Divisão da operação em pontos decisivos sequenciais até o EFD Op", "Redação final da vontade do comandante inserida no Conceito", "Coordenação de esforços no tempo e espaço para aumentar a sinergia"]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{"0": "3", "1": "1", "2": "0", "3": "2"}</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Hidrografia trata de águas e navegação; Terreno trata do relevo e obstáculos terrestres; Pontos de Importância foca em locais estratégicos/instalações; Linhas de Transporte foca em rotas e logística.</t>
+          <t>A Matriz de Sincronização coordena esforços no tempo e espaço. O Faseamento relaciona pontos decisivos até o Estado Final Desejado. A Intenção do Comandante tem sua redação final incluída no Conceito.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1633,37 +1633,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág. 75, 76</t>
+          <t>Pág. 81, 82, 83</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Relacione os Passos do Desenvolvimento do Conceito da Operação às suas respectivas atividades ou definições.</t>
+          <t>Relacione os elementos do controle da operação planejada às suas respectivas características ou funções.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>["Passo 1", "Passo 2", "Passo 4"]</t>
+          <t>["Planejamento do Controle", "Controle da Operação em Curso", "Seção de Operações (D-3)", "Seção de Planejamento (D-5)"]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>["Determinar as ações das Forças Componentes e Forças Amigas", "Organizar os meios adjudicados de acordo com as operações", "Confirmação das Premissas Básicas"]</t>
+          <t>["Acompanha as operações correntes e lida com informações críticas imediatas", "Avalia o desenvolvimento das operações para planejar operações futuras", "Elaborado antes da ação, definindo o que deve ser controlado", "Realizado enquanto as ações estão sendo desencadeadas"]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
+          <t>{"0": "2", "1": "3", "2": "0", "3": "1"}</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>O Passo 1 consiste na reavaliação das Premissas Básicas. O Passo 2 envolve determinar as ações das F Cte. O Passo 4 trata da organização das forças e meios adjudicados.</t>
+          <t>O Planejamento do Controle é feito antes da ação; o Controle da Operação em Curso ocorre durante a ação; a Seção D-3 foca no acompanhamento e controle das operações correntes; a Seção D-5 avalia o desenvolvimento para planejar operações futuras.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1677,37 +1677,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág. 78</t>
+          <t>Pág. 82, 83</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Associe os itens do formato do Plano Operacional às suas descrições corretas.</t>
+          <t>Associe os conceitos fundamentais do controle operacional às suas definições corretas.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>["Situação", "Missão", "Execução"]</t>
+          <t>["Sincronização", "Consciência Situacional", "Avaliação da Campanha", "Gerenciamento da Informação"]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>["Exposição do plano contendo a Intenção do Comandante e o Conceito da Operação", "Informações sobre Forças Inimigas, Amigas e Centros de Gravidade", "Enunciado claro e conciso contendo a finalidade (propósito) e as ações (tarefas)"]</t>
+          <t>["Verificação se as ações planejadas produzem os efeitos esperados", "Estabelecimento de fluxo de dados para viabilizar a tomada de decisão", "Arranjo de ações no tempo, espaço e propósito para maximizar poder de combate", "Percepção precisa dos fatores que afetam a tarefa e o ambiente"]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{"0": "1", "1": "2", "2": "0"}</t>
+          <t>{"0": "2", "1": "3", "2": "0", "3": "1"}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>A 'Situação' contém informações para entendimento do quadro (Inimigos, Amigos, CG). A 'Missão' é o enunciado com propósito e tarefas. A 'Execução' expõe o plano, incluindo a Intenção e o Conceito.</t>
+          <t>A sincronização é o arranjo de ações no tempo e espaço; a consciência situacional é a percepção precisa do ambiente; a avaliação da campanha verifica a produção dos efeitos esperados; o gerenciamento da informação cuida do fluxo de dados para a decisão.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pág. 79</t>
+          <t>Pág. 84, 85, 87</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Correlacione os Anexos do Plano Operacional aos Apêndices ou conteúdos que lhes pertencem.</t>
+          <t>Relacione as reuniões do Estado-Maior Conjunto (EMCj) aos seus propósitos principais.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>["Anexo A (Inteligência)", "Anexo B (Comando e Controle)", "Anexo K (Interdição)"]</t>
+          <t>["Reunião de Situação", "Reunião de Coordenação de Comando", "Reunião de Coordenação de Operações"]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>["Diagrama de Enlaces e Controle do Espectro Eletromagnético", "Lista Priorizada Integrada de Alvos (LIPA) e Lista de Alvos Restritos", "Forças Oponentes (Ordem de Batalha) e Infraestruturas críticas"]</t>
+          <t>["Atualizar os Comandantes das Forças Componentes sobre atividades em curso", "Elaborar a versão preliminar da Ordem de Coordenação e condensar informações", "Permitir que o EMCj proporcione ao Comandante a consciência situacional"]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>O Anexo A (Inteligência) contém a Ordem de Batalha das Forças Oponentes. O Anexo B (C2) contém o Diagrama de Enlaces. O Anexo K (Interdição) contém a LIPA.</t>
+          <t>A Reunião de Situação visa a consciência situacional; a de Coordenação de Comando atualiza os Cmt F Cte; a de Coordenação de Operações é a principal para coordenar atividades e preparar a O Coor.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1765,37 +1765,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pág. 77</t>
+          <t>Pág. 85, 86, 88</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Relacione as responsabilidades e fases da elaboração de planos às suas características.</t>
+          <t>Associe as reuniões específicas aos produtos ou focos de trabalho resultantes.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>["Seção de Operações (D3)", "Seção de Planejamento (D5)", "2ª Fase do Processo"]</t>
+          <t>["Reunião de Coordenação de Fogos", "Reunião de Coordenação de Inteligência", "Reunião de Aprovação da Ordem de Coordenação"]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>["Redação dos Planos e Ordens", "Atribuição principal da redação do Plano Operacional", "Apoio à redação do Plano Operacional"]</t>
+          <t>["Atualização do Plano de Obtenção de Conhecimento (POC)", "Aprovação da O Coor e ratificação das orientações do Comandante", "Lista Preliminar Integrada e Priorizada de Alvos (LPIPA)"]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{"0": "1", "1": "2", "2": "0"}</t>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A redação do Plano Operacional é atribuição do D3, com apoio do D5. A 2ª fase do processo corresponde à 'Redação dos Planos e Ordens',.</t>
+          <t>A Reunião de Fogos gera a LPIPA; a de Inteligência atualiza o POC; a de Aprovação tem como foco aprovar a O Coor e ratificar orientações.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1809,27 +1809,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pág. 76</t>
+          <t>Pág. 86, 87, 88</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Relacione os itens que compõem o Conceito da Operação com suas descrições.</t>
+          <t>Relacione as reuniões de coordenação com os chefes de seção responsáveis por sua coordenação.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>["Matriz de Sincronização", "Faseamento", "Intenção do Comandante"]</t>
+          <t>["Reunião de Coordenação de Op Info", "Reunião de Coordenação do Espaço Aéreo", "Reunião de Controle da Operação Planejada"]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>["Divisão da operação em pontos decisivos sequenciais até o EFD Op", "Redação final da vontade do comandante inserida no Conceito", "Coordenação de esforços no tempo e espaço para aumentar a sinergia"]</t>
+          <t>["Chefe da Seção de Operações (D-3)", "Chefe da Seção de Planejamento (D-5)", "Chefe da Seção D-8"]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1839,283 +1839,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>A Matriz de Sincronização coordena esforços no tempo e espaço. O Faseamento relaciona pontos decisivos até o Estado Final Desejado. A Intenção do Comandante tem sua redação final incluída no Conceito.</t>
+          <t>A Reunião de Op Info é coordenada pela D-8; a do Espaço Aéreo é coordenada pela D-3; a de Controle da Operação Planejada é coordenada pelo Chefe da D-5.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Pág. 81, 82, 83</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Relacione os elementos do controle da operação planejada às suas respectivas características ou funções.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>["Planejamento do Controle", "Controle da Operação em Curso", "Seção de Operações (D-3)", "Seção de Planejamento (D-5)"]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>["Acompanha as operações correntes e lida com informações críticas imediatas", "Avalia o desenvolvimento das operações para planejar operações futuras", "Elaborado antes da ação, definindo o que deve ser controlado", "Realizado enquanto as ações estão sendo desencadeadas"]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>{"0": "2", "1": "3", "2": "0", "3": "1"}</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>O Planejamento do Controle é feito antes da ação; o Controle da Operação em Curso ocorre durante a ação; a Seção D-3 foca no acompanhamento e controle das operações correntes; a Seção D-5 avalia o desenvolvimento para planejar operações futuras.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Pág. 82, 83</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Associe os conceitos fundamentais do controle operacional às suas definições corretas.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>["Sincronização", "Consciência Situacional", "Avaliação da Campanha", "Gerenciamento da Informação"]</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>["Verificação se as ações planejadas produzem os efeitos esperados", "Estabelecimento de fluxo de dados para viabilizar a tomada de decisão", "Arranjo de ações no tempo, espaço e propósito para maximizar poder de combate", "Percepção precisa dos fatores que afetam a tarefa e o ambiente"]</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>{"0": "2", "1": "3", "2": "0", "3": "1"}</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>A sincronização é o arranjo de ações no tempo e espaço; a consciência situacional é a percepção precisa do ambiente; a avaliação da campanha verifica a produção dos efeitos esperados; o gerenciamento da informação cuida do fluxo de dados para a decisão.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Pág. 84, 85, 87</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Relacione as reuniões do Estado-Maior Conjunto (EMCj) aos seus propósitos principais.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>["Reunião de Situação", "Reunião de Coordenação de Comando", "Reunião de Coordenação de Operações"]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>["Atualizar os Comandantes das Forças Componentes sobre atividades em curso", "Elaborar a versão preliminar da Ordem de Coordenação e condensar informações", "Permitir que o EMCj proporcione ao Comandante a consciência situacional"]</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>A Reunião de Situação visa a consciência situacional; a de Coordenação de Comando atualiza os Cmt F Cte; a de Coordenação de Operações é a principal para coordenar atividades e preparar a O Coor.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Pág. 85, 86, 88</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Associe as reuniões específicas aos produtos ou focos de trabalho resultantes.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>["Reunião de Coordenação de Fogos", "Reunião de Coordenação de Inteligência", "Reunião de Aprovação da Ordem de Coordenação"]</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>["Atualização do Plano de Obtenção de Conhecimento (POC)", "Aprovação da O Coor e ratificação das orientações do Comandante", "Lista Preliminar Integrada e Priorizada de Alvos (LPIPA)"]</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>A Reunião de Fogos gera a LPIPA; a de Inteligência atualiza o POC; a de Aprovação tem como foco aprovar a O Coor e ratificar orientações.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Pág. 86, 87, 88</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Relacione as reuniões de coordenação com os chefes de seção responsáveis por sua coordenação.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>["Reunião de Coordenação de Op Info", "Reunião de Coordenação do Espaço Aéreo", "Reunião de Controle da Operação Planejada"]</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>["Chefe da Seção de Operações (D-3)", "Chefe da Seção de Planejamento (D-5)", "Chefe da Seção D-8"]</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>{"0": "2", "1": "0", "2": "1"}</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>A Reunião de Op Info é coordenada pela D-8; a do Espaço Aéreo é coordenada pela D-3; a de Controle da Operação Planejada é coordenada pelo Chefe da D-5.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
